--- a/12/5/Índices de precios en EEUU 1948 a 2021 - Trimestral.xlsx
+++ b/12/5/Índices de precios en EEUU 1948 a 2021 - Trimestral.xlsx
@@ -6161,7 +6161,7 @@
         <v>210.5</v>
       </c>
       <c r="E294">
-        <v>210.6</v>
+        <v>210.1</v>
       </c>
     </row>
     <row r="295" spans="1:5">

--- a/12/5/Índices de precios en EEUU 1948 a 2021 - Trimestral.xlsx
+++ b/12/5/Índices de precios en EEUU 1948 a 2021 - Trimestral.xlsx
@@ -6175,10 +6175,10 @@
         <v>276</v>
       </c>
       <c r="D295">
-        <v>218.1</v>
+        <v>218.3</v>
       </c>
       <c r="E295">
-        <v>223.5</v>
+        <v>223.6</v>
       </c>
     </row>
   </sheetData>

--- a/12/5/Índices de precios en EEUU 1948 a 2021 - Trimestral.xlsx
+++ b/12/5/Índices de precios en EEUU 1948 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
   <si>
     <t>Serie</t>
   </si>
@@ -911,6 +911,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1271,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E295"/>
+  <dimension ref="A1:E296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6178,7 +6181,24 @@
         <v>218.3</v>
       </c>
       <c r="E295">
-        <v>223.6</v>
+        <v>223.8</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" t="s">
+        <v>299</v>
+      </c>
+      <c r="B296">
+        <v>273.6</v>
+      </c>
+      <c r="C296">
+        <v>279.5</v>
+      </c>
+      <c r="D296">
+        <v>224.9</v>
+      </c>
+      <c r="E296">
+        <v>233.2</v>
       </c>
     </row>
   </sheetData>
